--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品出口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按国民经济行业分限额以上批发业企业商品出口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -538,805 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340.13647</v>
+        <v>626.28698</v>
       </c>
       <c r="C2" t="n">
-        <v>113.96172</v>
+        <v>141.44994</v>
       </c>
       <c r="D2" t="n">
-        <v>32.64715</v>
+        <v>75.77621000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>142.69266</v>
+        <v>162.03222</v>
       </c>
       <c r="F2" t="n">
-        <v>303.66612</v>
+        <v>395.56789</v>
       </c>
       <c r="G2" t="n">
-        <v>192.16687</v>
+        <v>229.22121</v>
       </c>
       <c r="H2" t="n">
-        <v>238.57973</v>
+        <v>525.76394</v>
       </c>
       <c r="I2" t="n">
-        <v>1687.77132</v>
+        <v>1928.98124</v>
       </c>
       <c r="J2" t="n">
-        <v>3042.98482</v>
+        <v>3779.25714</v>
       </c>
       <c r="K2" t="n">
-        <v>277.59335</v>
+        <v>387.51865</v>
       </c>
       <c r="L2" t="n">
-        <v>59.05946</v>
+        <v>32.00655</v>
       </c>
       <c r="M2" t="n">
-        <v>100.13982</v>
+        <v>91.75724</v>
       </c>
       <c r="N2" t="n">
-        <v>182.87844</v>
+        <v>378.52637</v>
       </c>
       <c r="O2" t="n">
-        <v>1948.09931</v>
+        <v>3012.02104</v>
       </c>
       <c r="P2" t="n">
-        <v>110.58368</v>
+        <v>109.30269</v>
       </c>
       <c r="Q2" t="n">
-        <v>4148.16868</v>
+        <v>4983.83239</v>
       </c>
       <c r="R2" t="n">
-        <v>178.14357</v>
+        <v>224.39511</v>
       </c>
       <c r="S2" t="n">
-        <v>765.78562</v>
+        <v>935.63276</v>
       </c>
       <c r="T2" t="n">
-        <v>707.61575</v>
+        <v>1034.48457</v>
       </c>
       <c r="U2" t="n">
-        <v>457.98582</v>
+        <v>510.5737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>626.28698</v>
+        <v>953.2957</v>
       </c>
       <c r="C3" t="n">
-        <v>141.44994</v>
+        <v>135.533</v>
       </c>
       <c r="D3" t="n">
-        <v>75.77621000000001</v>
+        <v>118.1227</v>
       </c>
       <c r="E3" t="n">
-        <v>162.03222</v>
+        <v>226.8347</v>
       </c>
       <c r="F3" t="n">
-        <v>395.56789</v>
+        <v>396.8983</v>
       </c>
       <c r="G3" t="n">
-        <v>229.22121</v>
+        <v>296.355</v>
       </c>
       <c r="H3" t="n">
-        <v>525.76394</v>
+        <v>673.7971</v>
       </c>
       <c r="I3" t="n">
-        <v>1928.98124</v>
+        <v>2406.2237</v>
       </c>
       <c r="J3" t="n">
-        <v>3779.25714</v>
+        <v>4724.2929</v>
       </c>
       <c r="K3" t="n">
-        <v>387.51865</v>
+        <v>602.8668</v>
       </c>
       <c r="L3" t="n">
-        <v>32.00655</v>
+        <v>44.5179</v>
       </c>
       <c r="M3" t="n">
-        <v>91.75724</v>
+        <v>100.0421</v>
       </c>
       <c r="N3" t="n">
-        <v>378.52637</v>
+        <v>524.7172</v>
       </c>
       <c r="O3" t="n">
-        <v>3012.02104</v>
+        <v>3726.553</v>
       </c>
       <c r="P3" t="n">
-        <v>109.30269</v>
+        <v>133.9991</v>
       </c>
       <c r="Q3" t="n">
-        <v>4983.83239</v>
+        <v>6010.1131</v>
       </c>
       <c r="R3" t="n">
-        <v>224.39511</v>
+        <v>318.2605</v>
       </c>
       <c r="S3" t="n">
-        <v>935.63276</v>
+        <v>1081.0634</v>
       </c>
       <c r="T3" t="n">
-        <v>1034.48457</v>
+        <v>1410.6567</v>
       </c>
       <c r="U3" t="n">
-        <v>510.5737</v>
+        <v>586.8755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>953.2957</v>
+        <v>1124.63745</v>
       </c>
       <c r="C4" t="n">
-        <v>135.533</v>
+        <v>110.29519</v>
       </c>
       <c r="D4" t="n">
-        <v>118.1227</v>
+        <v>147.60308</v>
       </c>
       <c r="E4" t="n">
-        <v>226.8347</v>
+        <v>283.49343</v>
       </c>
       <c r="F4" t="n">
-        <v>396.8983</v>
+        <v>473.66296</v>
       </c>
       <c r="G4" t="n">
-        <v>296.355</v>
+        <v>427.74792</v>
       </c>
       <c r="H4" t="n">
-        <v>673.7971</v>
+        <v>748.46136</v>
       </c>
       <c r="I4" t="n">
-        <v>2406.2237</v>
+        <v>2446.97096</v>
       </c>
       <c r="J4" t="n">
-        <v>4724.2929</v>
+        <v>4352.47947</v>
       </c>
       <c r="K4" t="n">
-        <v>602.8668</v>
+        <v>312.17958</v>
       </c>
       <c r="L4" t="n">
-        <v>44.5179</v>
+        <v>26.14094</v>
       </c>
       <c r="M4" t="n">
-        <v>100.0421</v>
+        <v>273.69126</v>
       </c>
       <c r="N4" t="n">
-        <v>524.7172</v>
+        <v>764.87611</v>
       </c>
       <c r="O4" t="n">
-        <v>3726.553</v>
+        <v>4986.3523</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9991</v>
+        <v>124.47347</v>
       </c>
       <c r="Q4" t="n">
-        <v>6010.1131</v>
+        <v>7007.63724</v>
       </c>
       <c r="R4" t="n">
-        <v>318.2605</v>
+        <v>289.22787</v>
       </c>
       <c r="S4" t="n">
-        <v>1081.0634</v>
+        <v>1075.70593</v>
       </c>
       <c r="T4" t="n">
-        <v>1410.6567</v>
+        <v>1917.26837</v>
       </c>
       <c r="U4" t="n">
-        <v>586.8755</v>
+        <v>571.48929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1124.63745</v>
+        <v>1405.81261</v>
       </c>
       <c r="C5" t="n">
-        <v>110.29519</v>
+        <v>123.37762</v>
       </c>
       <c r="D5" t="n">
-        <v>147.60308</v>
+        <v>175.67899</v>
       </c>
       <c r="E5" t="n">
-        <v>283.49343</v>
+        <v>243.93287</v>
       </c>
       <c r="F5" t="n">
-        <v>473.66296</v>
+        <v>527.38552</v>
       </c>
       <c r="G5" t="n">
-        <v>427.74792</v>
+        <v>511.30642</v>
       </c>
       <c r="H5" t="n">
-        <v>748.46136</v>
+        <v>845.64361</v>
       </c>
       <c r="I5" t="n">
-        <v>2446.97096</v>
+        <v>2781.65908</v>
       </c>
       <c r="J5" t="n">
-        <v>4352.47947</v>
+        <v>4687.76345</v>
       </c>
       <c r="K5" t="n">
-        <v>312.17958</v>
+        <v>430.19422</v>
       </c>
       <c r="L5" t="n">
-        <v>26.14094</v>
+        <v>26.02042</v>
       </c>
       <c r="M5" t="n">
-        <v>273.69126</v>
+        <v>131.09</v>
       </c>
       <c r="N5" t="n">
-        <v>764.87611</v>
+        <v>727.8359400000001</v>
       </c>
       <c r="O5" t="n">
-        <v>4986.3523</v>
+        <v>5765.24985</v>
       </c>
       <c r="P5" t="n">
-        <v>124.47347</v>
+        <v>213.3492</v>
       </c>
       <c r="Q5" t="n">
-        <v>7007.63724</v>
+        <v>7784.60371</v>
       </c>
       <c r="R5" t="n">
-        <v>289.22787</v>
+        <v>237.47812</v>
       </c>
       <c r="S5" t="n">
-        <v>1075.70593</v>
+        <v>1194.74889</v>
       </c>
       <c r="T5" t="n">
-        <v>1917.26837</v>
+        <v>2249.79815</v>
       </c>
       <c r="U5" t="n">
-        <v>571.48929</v>
+        <v>685.99635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1405.81261</v>
+        <v>1541.0478</v>
       </c>
       <c r="C6" t="n">
-        <v>123.37762</v>
+        <v>121.76665</v>
       </c>
       <c r="D6" t="n">
-        <v>175.67899</v>
+        <v>198.18992</v>
       </c>
       <c r="E6" t="n">
-        <v>243.93287</v>
+        <v>269.93829</v>
       </c>
       <c r="F6" t="n">
-        <v>527.38552</v>
+        <v>606.43496</v>
       </c>
       <c r="G6" t="n">
-        <v>511.30642</v>
+        <v>591.6378999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>845.64361</v>
+        <v>452.56432</v>
       </c>
       <c r="I6" t="n">
-        <v>2781.65908</v>
+        <v>2744.77</v>
       </c>
       <c r="J6" t="n">
-        <v>4687.76345</v>
+        <v>4692.56552</v>
       </c>
       <c r="K6" t="n">
-        <v>430.19422</v>
+        <v>414.75891</v>
       </c>
       <c r="L6" t="n">
-        <v>26.02042</v>
+        <v>43.68822</v>
       </c>
       <c r="M6" t="n">
-        <v>131.09</v>
+        <v>160.25438</v>
       </c>
       <c r="N6" t="n">
-        <v>727.8359400000001</v>
+        <v>949.4499499999999</v>
       </c>
       <c r="O6" t="n">
-        <v>5765.24985</v>
+        <v>6364.45405</v>
       </c>
       <c r="P6" t="n">
-        <v>213.3492</v>
+        <v>203.23694</v>
       </c>
       <c r="Q6" t="n">
-        <v>7784.60371</v>
+        <v>7361.40673</v>
       </c>
       <c r="R6" t="n">
-        <v>237.47812</v>
+        <v>281.1206</v>
       </c>
       <c r="S6" t="n">
-        <v>1194.74889</v>
+        <v>1254.8576</v>
       </c>
       <c r="T6" t="n">
-        <v>2249.79815</v>
+        <v>2285.62296</v>
       </c>
       <c r="U6" t="n">
-        <v>685.99635</v>
+        <v>711.72235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1541.0478</v>
+        <v>1272.9882</v>
       </c>
       <c r="C7" t="n">
-        <v>121.76665</v>
+        <v>166.1925</v>
       </c>
       <c r="D7" t="n">
-        <v>198.18992</v>
+        <v>225.2222</v>
       </c>
       <c r="E7" t="n">
-        <v>269.93829</v>
+        <v>270.4531</v>
       </c>
       <c r="F7" t="n">
-        <v>606.43496</v>
+        <v>589.7619999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>591.6378999999999</v>
+        <v>565.7736</v>
       </c>
       <c r="H7" t="n">
-        <v>452.56432</v>
+        <v>491.8101</v>
       </c>
       <c r="I7" t="n">
-        <v>2744.77</v>
+        <v>2686.0937</v>
       </c>
       <c r="J7" t="n">
-        <v>4692.56552</v>
+        <v>5051.3608</v>
       </c>
       <c r="K7" t="n">
-        <v>414.75891</v>
+        <v>373.7854</v>
       </c>
       <c r="L7" t="n">
-        <v>43.68822</v>
+        <v>50.2669</v>
       </c>
       <c r="M7" t="n">
-        <v>160.25438</v>
+        <v>95.428</v>
       </c>
       <c r="N7" t="n">
-        <v>949.4499499999999</v>
+        <v>985.7616</v>
       </c>
       <c r="O7" t="n">
-        <v>6364.45405</v>
+        <v>5825.0423</v>
       </c>
       <c r="P7" t="n">
-        <v>203.23694</v>
+        <v>268.2554</v>
       </c>
       <c r="Q7" t="n">
-        <v>7361.40673</v>
+        <v>7123.2153</v>
       </c>
       <c r="R7" t="n">
-        <v>281.1206</v>
+        <v>298.9396</v>
       </c>
       <c r="S7" t="n">
-        <v>1254.8576</v>
+        <v>1565.4097</v>
       </c>
       <c r="T7" t="n">
-        <v>2285.62296</v>
+        <v>2083.344</v>
       </c>
       <c r="U7" t="n">
-        <v>711.72235</v>
+        <v>790.9394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.9882</v>
+        <v>1040.6816</v>
       </c>
       <c r="C8" t="n">
-        <v>166.1925</v>
+        <v>135.6716</v>
       </c>
       <c r="D8" t="n">
-        <v>225.2222</v>
+        <v>84.2628</v>
       </c>
       <c r="E8" t="n">
-        <v>270.4531</v>
+        <v>285.5857</v>
       </c>
       <c r="F8" t="n">
-        <v>589.7619999999999</v>
+        <v>431.2105</v>
       </c>
       <c r="G8" t="n">
-        <v>565.7736</v>
+        <v>601.5857999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>491.8101</v>
+        <v>387.7721</v>
       </c>
       <c r="I8" t="n">
-        <v>2686.0937</v>
+        <v>2515.445</v>
       </c>
       <c r="J8" t="n">
-        <v>5051.3608</v>
+        <v>5708.9196</v>
       </c>
       <c r="K8" t="n">
-        <v>373.7854</v>
+        <v>365.19</v>
       </c>
       <c r="L8" t="n">
-        <v>50.2669</v>
+        <v>60.3323</v>
       </c>
       <c r="M8" t="n">
-        <v>95.428</v>
+        <v>122.1248</v>
       </c>
       <c r="N8" t="n">
-        <v>985.7616</v>
+        <v>941.8582</v>
       </c>
       <c r="O8" t="n">
-        <v>5825.0423</v>
+        <v>5026.4242</v>
       </c>
       <c r="P8" t="n">
-        <v>268.2554</v>
+        <v>226.1005</v>
       </c>
       <c r="Q8" t="n">
-        <v>7123.2153</v>
+        <v>6684.5022</v>
       </c>
       <c r="R8" t="n">
-        <v>298.9396</v>
+        <v>373.2554</v>
       </c>
       <c r="S8" t="n">
-        <v>1565.4097</v>
+        <v>1509.9033</v>
       </c>
       <c r="T8" t="n">
-        <v>2083.344</v>
+        <v>1722.9207</v>
       </c>
       <c r="U8" t="n">
-        <v>790.9394</v>
+        <v>815.5468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1040.6816</v>
+        <v>515.972</v>
       </c>
       <c r="C9" t="n">
-        <v>135.6716</v>
+        <v>162.187</v>
       </c>
       <c r="D9" t="n">
-        <v>84.2628</v>
+        <v>130.762</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5857</v>
+        <v>291.541</v>
       </c>
       <c r="F9" t="n">
-        <v>431.2105</v>
+        <v>499.167</v>
       </c>
       <c r="G9" t="n">
-        <v>601.5857999999999</v>
+        <v>589.6079999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>387.7721</v>
+        <v>535.938</v>
       </c>
       <c r="I9" t="n">
-        <v>2515.445</v>
+        <v>2588.566</v>
       </c>
       <c r="J9" t="n">
-        <v>5708.9196</v>
+        <v>6973.06</v>
       </c>
       <c r="K9" t="n">
-        <v>365.19</v>
+        <v>435.412</v>
       </c>
       <c r="L9" t="n">
-        <v>60.3323</v>
+        <v>94.774</v>
       </c>
       <c r="M9" t="n">
-        <v>122.1248</v>
+        <v>128.668</v>
       </c>
       <c r="N9" t="n">
-        <v>941.8582</v>
+        <v>1085.953</v>
       </c>
       <c r="O9" t="n">
-        <v>5026.4242</v>
+        <v>5235.398</v>
       </c>
       <c r="P9" t="n">
-        <v>226.1005</v>
+        <v>219.251</v>
       </c>
       <c r="Q9" t="n">
-        <v>6684.5022</v>
+        <v>7313.29</v>
       </c>
       <c r="R9" t="n">
-        <v>373.2554</v>
+        <v>873.955</v>
       </c>
       <c r="S9" t="n">
-        <v>1509.9033</v>
+        <v>1571.885</v>
       </c>
       <c r="T9" t="n">
-        <v>1722.9207</v>
+        <v>1484.961</v>
       </c>
       <c r="U9" t="n">
-        <v>815.5468</v>
+        <v>891.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.972</v>
+        <v>554.7</v>
       </c>
       <c r="C10" t="n">
-        <v>162.187</v>
+        <v>166.8</v>
       </c>
       <c r="D10" t="n">
-        <v>130.762</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>291.541</v>
+        <v>318.8</v>
       </c>
       <c r="F10" t="n">
-        <v>499.167</v>
+        <v>570.5</v>
       </c>
       <c r="G10" t="n">
-        <v>589.6079999999999</v>
+        <v>643</v>
       </c>
       <c r="H10" t="n">
-        <v>535.938</v>
+        <v>268.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2588.566</v>
+        <v>2818.5</v>
       </c>
       <c r="J10" t="n">
-        <v>6973.06</v>
+        <v>8460.799999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>435.412</v>
+        <v>928.3</v>
       </c>
       <c r="L10" t="n">
-        <v>94.774</v>
+        <v>164.2</v>
       </c>
       <c r="M10" t="n">
-        <v>128.668</v>
+        <v>188.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1085.953</v>
+        <v>803.6</v>
       </c>
       <c r="O10" t="n">
-        <v>5235.398</v>
+        <v>5963</v>
       </c>
       <c r="P10" t="n">
-        <v>219.251</v>
+        <v>218.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>7313.29</v>
+        <v>7804</v>
       </c>
       <c r="R10" t="n">
-        <v>873.955</v>
+        <v>1121.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.885</v>
+        <v>1346.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1484.961</v>
+        <v>2307.5</v>
       </c>
       <c r="U10" t="n">
-        <v>891.66</v>
+        <v>900.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>554.7</v>
+        <v>491.4711</v>
       </c>
       <c r="C11" t="n">
-        <v>166.8</v>
+        <v>186.1121</v>
       </c>
       <c r="D11" t="n">
-        <v>80.09999999999999</v>
+        <v>222.2633</v>
       </c>
       <c r="E11" t="n">
-        <v>318.8</v>
+        <v>332.9053</v>
       </c>
       <c r="F11" t="n">
-        <v>570.5</v>
+        <v>647.8084</v>
       </c>
       <c r="G11" t="n">
-        <v>643</v>
+        <v>744.3969</v>
       </c>
       <c r="H11" t="n">
-        <v>268.8</v>
+        <v>385.0148</v>
       </c>
       <c r="I11" t="n">
-        <v>2818.5</v>
+        <v>2990.6728</v>
       </c>
       <c r="J11" t="n">
-        <v>8460.799999999999</v>
+        <v>8847.948</v>
       </c>
       <c r="K11" t="n">
-        <v>928.3</v>
+        <v>1095.6888</v>
       </c>
       <c r="L11" t="n">
-        <v>164.2</v>
+        <v>81.58029999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5</v>
+        <v>141.733</v>
       </c>
       <c r="N11" t="n">
-        <v>803.6</v>
+        <v>1081.1568</v>
       </c>
       <c r="O11" t="n">
-        <v>5963</v>
+        <v>6034.971</v>
       </c>
       <c r="P11" t="n">
-        <v>218.6</v>
+        <v>193.6417</v>
       </c>
       <c r="Q11" t="n">
-        <v>7804</v>
+        <v>8664.6895</v>
       </c>
       <c r="R11" t="n">
-        <v>1121.5</v>
+        <v>856.5747</v>
       </c>
       <c r="S11" t="n">
-        <v>1346.4</v>
+        <v>1058.3857</v>
       </c>
       <c r="T11" t="n">
-        <v>2307.5</v>
+        <v>2149.7223</v>
       </c>
       <c r="U11" t="n">
-        <v>900.5</v>
+        <v>985.4654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>491.4711</v>
+        <v>600.7648</v>
       </c>
       <c r="C12" t="n">
-        <v>186.1121</v>
+        <v>190.9703</v>
       </c>
       <c r="D12" t="n">
-        <v>222.2633</v>
+        <v>173.3856</v>
       </c>
       <c r="E12" t="n">
-        <v>332.9053</v>
+        <v>737.6487</v>
       </c>
       <c r="F12" t="n">
-        <v>647.8084</v>
+        <v>617.8026</v>
       </c>
       <c r="G12" t="n">
-        <v>744.3969</v>
+        <v>866.8330999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>385.0148</v>
+        <v>414.8341</v>
       </c>
       <c r="I12" t="n">
-        <v>2990.6728</v>
+        <v>2765.8517</v>
       </c>
       <c r="J12" t="n">
-        <v>8847.948</v>
+        <v>9381.693600000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1095.6888</v>
+        <v>1022.5717</v>
       </c>
       <c r="L12" t="n">
-        <v>81.58029999999999</v>
+        <v>133.9829</v>
       </c>
       <c r="M12" t="n">
-        <v>141.733</v>
+        <v>125.6662</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.1568</v>
+        <v>595.8002</v>
       </c>
       <c r="O12" t="n">
-        <v>6034.971</v>
+        <v>5415.2334</v>
       </c>
       <c r="P12" t="n">
-        <v>193.6417</v>
+        <v>127.2065</v>
       </c>
       <c r="Q12" t="n">
-        <v>8664.6895</v>
+        <v>8271.5861</v>
       </c>
       <c r="R12" t="n">
-        <v>856.5747</v>
+        <v>1169.0247</v>
       </c>
       <c r="S12" t="n">
-        <v>1058.3857</v>
+        <v>1052.4171</v>
       </c>
       <c r="T12" t="n">
-        <v>2149.7223</v>
+        <v>2215.8746</v>
       </c>
       <c r="U12" t="n">
-        <v>985.4654</v>
+        <v>947.0347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>600.7648</v>
+        <v>996.2667</v>
       </c>
       <c r="C13" t="n">
-        <v>190.9703</v>
+        <v>221.6175</v>
       </c>
       <c r="D13" t="n">
-        <v>173.3856</v>
+        <v>303.656</v>
       </c>
       <c r="E13" t="n">
-        <v>737.6487</v>
+        <v>658.4724</v>
       </c>
       <c r="F13" t="n">
-        <v>617.8026</v>
+        <v>816.9438</v>
       </c>
       <c r="G13" t="n">
-        <v>866.8330999999999</v>
+        <v>1038.7434</v>
       </c>
       <c r="H13" t="n">
-        <v>414.8341</v>
+        <v>509.7281</v>
       </c>
       <c r="I13" t="n">
-        <v>2765.8517</v>
+        <v>3131.7723</v>
       </c>
       <c r="J13" t="n">
-        <v>9381.693600000001</v>
+        <v>11586.3388</v>
       </c>
       <c r="K13" t="n">
-        <v>1022.5717</v>
+        <v>1602.1838</v>
       </c>
       <c r="L13" t="n">
-        <v>133.9829</v>
+        <v>155.9013</v>
       </c>
       <c r="M13" t="n">
-        <v>125.6662</v>
+        <v>137.3047</v>
       </c>
       <c r="N13" t="n">
-        <v>595.8002</v>
+        <v>708.21</v>
       </c>
       <c r="O13" t="n">
-        <v>5415.2334</v>
+        <v>7113.7171</v>
       </c>
       <c r="P13" t="n">
-        <v>127.2065</v>
+        <v>134.8583</v>
       </c>
       <c r="Q13" t="n">
-        <v>8271.5861</v>
+        <v>9721.5681</v>
       </c>
       <c r="R13" t="n">
-        <v>1169.0247</v>
+        <v>1141.4366</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.4171</v>
+        <v>1043.8516</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.8746</v>
+        <v>2642.7944</v>
       </c>
       <c r="U13" t="n">
-        <v>947.0347</v>
+        <v>1079.5435</v>
       </c>
     </row>
   </sheetData>
